--- a/biology/Biologie cellulaire et moléculaire/Guanosine_monophosphate_cyclique/Guanosine_monophosphate_cyclique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Guanosine_monophosphate_cyclique/Guanosine_monophosphate_cyclique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La guanosine monophosphate cyclique (ou GMP cyclique ou GMPc) est un des nucléotides cycliques dérivés de la guanosine triphosphate (GTP).
@@ -513,7 +525,9 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La synthèse de la GMPc est catalysée par la guanylate cyclase, qui convertit la GTP en GMPc + PPi.
 La GMPc est dégradée par certaines phosphodiestérases.
@@ -545,7 +559,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La GMPc agit sur trois types de protéines : la protéine kinase G, certaines phosphodiestérases et certains canaux ioniques dits GMPc-dépendants.
 La GMPc influe directement sur le mécanisme érectile chez l'homme et chez la femme. Plus prononcée chez l'homme son action entraîne le relâchement des muscles lisses du pénis, ce qui a pour effet de faciliter le passage du sang en provenance des veines péniennes et d'entraîner le gonflement de la verge. Plus la présence de GMPc est marquée plus l'érection sera durable et forte, et ce jusqu'à la dégradation de la GMPc. Chez la femme un phénomène similaire mais moins fort se produit au niveau du clitoris.
